--- a/static/data/arquivo-nao-contribuinte/NCT cód barras.xlsx
+++ b/static/data/arquivo-nao-contribuinte/NCT cód barras.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,33 +493,33 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>23/07/2025</t>
+          <t>24/07/2025</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>101222</v>
+        <v>101269</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>RJ</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>8.449,06</t>
+          <t>463,80</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.112,26</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>10.561,32</t>
+          <t>463,80</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -530,35 +530,35 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>23/07/2025</t>
+          <t>24/07/2025</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>85850000105613202781202507230200013978392403</t>
+          <t>85890000004638003022520501000001302202328600</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>23/07/2025</t>
+          <t>24/07/2025</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>101223</v>
+        <v>101271</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>PI</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>7.888,67</t>
+          <t>5,01</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>7.888,67</t>
+          <t>5,01</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -579,45 +579,45 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>23/07/2025</t>
+          <t>24/07/2025</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>85840000078886703072520470000000015851175300</t>
+          <t>85880000000050100980000000025112011298178600</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>23/07/2025</t>
+          <t>24/07/2025</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>101225</v>
+        <v>101273</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>RJ</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>103,25</t>
+          <t>851,99</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>25,81</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>129,06</t>
+          <t>851,99</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -628,26 +628,26 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>23/07/2025</t>
+          <t>24/07/2025</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>85880000001290602781202507230200013978392748</t>
+          <t>85800000008519903022520501000001302202294800</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>23/07/2025</t>
+          <t>24/07/2025</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>101226</v>
+        <v>101274</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -656,7 +656,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>265,34</t>
+          <t>647,40</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -666,7 +666,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>265,34</t>
+          <t>647,40</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -677,12 +677,159 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>23/07/2025</t>
+          <t>24/07/2025</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>85800000002653403022520401000001300380092200</t>
+          <t>85820000006474003022520501000001302202286700</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>24/07/2025</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>101275</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>33,78</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>33,78</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>24/07/2025</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>85830000000337803002520501000033356744260300</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>24/07/2025</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>101276</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>15,53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15,53</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>24/07/2025</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>85800000000155300980000000025112011298179400</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>24/07/2025</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>101277</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>5.044,75</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>5.044,75</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>24/07/2025</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>85810000050447503102520501001652587505814500</t>
         </is>
       </c>
     </row>
